--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="133">
   <si>
     <t>NAME</t>
   </si>
@@ -132,13 +132,289 @@
     <t>BTECH</t>
   </si>
   <si>
-    <t>MANUFAC</t>
-  </si>
-  <si>
     <t>FINANCE</t>
   </si>
   <si>
-    <t>10TH</t>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>shaah</t>
+  </si>
+  <si>
+    <t>snakesh</t>
+  </si>
+  <si>
+    <t>kalish</t>
+  </si>
+  <si>
+    <t>jain</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>maddy</t>
+  </si>
+  <si>
+    <t>sandy</t>
+  </si>
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>sari</t>
+  </si>
+  <si>
+    <t>jokic</t>
+  </si>
+  <si>
+    <t>murray</t>
+  </si>
+  <si>
+    <t>pope</t>
+  </si>
+  <si>
+    <t>harden</t>
+  </si>
+  <si>
+    <t>sachin</t>
+  </si>
+  <si>
+    <t>dhoni</t>
+  </si>
+  <si>
+    <t>vamsi</t>
+  </si>
+  <si>
+    <t>raven</t>
+  </si>
+  <si>
+    <t>nahas</t>
+  </si>
+  <si>
+    <t>muni</t>
+  </si>
+  <si>
+    <t>bhaskhar</t>
+  </si>
+  <si>
+    <t>vallabha</t>
+  </si>
+  <si>
+    <t>nayak</t>
+  </si>
+  <si>
+    <t>madhavi</t>
+  </si>
+  <si>
+    <t>raman</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>vesti</t>
+  </si>
+  <si>
+    <t>awasth</t>
+  </si>
+  <si>
+    <t>eyrefre</t>
+  </si>
+  <si>
+    <t>mathur</t>
+  </si>
+  <si>
+    <t>sarthak</t>
+  </si>
+  <si>
+    <t>vasanth</t>
+  </si>
+  <si>
+    <t>vikram</t>
+  </si>
+  <si>
+    <t>sowndar</t>
+  </si>
+  <si>
+    <t>sundar</t>
+  </si>
+  <si>
+    <t>shiva</t>
+  </si>
+  <si>
+    <t>lakshmi</t>
+  </si>
+  <si>
+    <t>prasad</t>
+  </si>
+  <si>
+    <t>ravik</t>
+  </si>
+  <si>
+    <t>comin</t>
+  </si>
+  <si>
+    <t>cstarc</t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>zampa</t>
+  </si>
+  <si>
+    <t>livik</t>
+  </si>
+  <si>
+    <t>erangel</t>
+  </si>
+  <si>
+    <t>arthur</t>
+  </si>
+  <si>
+    <t>rohit</t>
+  </si>
+  <si>
+    <t>shekhar</t>
+  </si>
+  <si>
+    <t>siva</t>
+  </si>
+  <si>
+    <t>shanker</t>
+  </si>
+  <si>
+    <t>pallavi</t>
+  </si>
+  <si>
+    <t>padma</t>
+  </si>
+  <si>
+    <t>krishna</t>
+  </si>
+  <si>
+    <t>preethi</t>
+  </si>
+  <si>
+    <t>sonu</t>
+  </si>
+  <si>
+    <t>kastha</t>
+  </si>
+  <si>
+    <t>kumari</t>
+  </si>
+  <si>
+    <t>mati</t>
+  </si>
+  <si>
+    <t>shoba</t>
+  </si>
+  <si>
+    <t>velu</t>
+  </si>
+  <si>
+    <t>metu</t>
+  </si>
+  <si>
+    <t>nahi</t>
+  </si>
+  <si>
+    <t>nova</t>
+  </si>
+  <si>
+    <t>einu</t>
+  </si>
+  <si>
+    <t>hema</t>
+  </si>
+  <si>
+    <t>kariu</t>
+  </si>
+  <si>
+    <t>cairu</t>
+  </si>
+  <si>
+    <t>MANUFACTURE</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>COMMERCIAL SERVICE</t>
+  </si>
+  <si>
+    <t>BCOM</t>
+  </si>
+  <si>
+    <t>nasa</t>
+  </si>
+  <si>
+    <t>basi</t>
+  </si>
+  <si>
+    <t>haei</t>
+  </si>
+  <si>
+    <t>jraw</t>
+  </si>
+  <si>
+    <t>jewaq</t>
+  </si>
+  <si>
+    <t>hawiz</t>
+  </si>
+  <si>
+    <t>nagd</t>
+  </si>
+  <si>
+    <t>gaxi</t>
+  </si>
+  <si>
+    <t>boxi</t>
+  </si>
+  <si>
+    <t>Sas</t>
+  </si>
+  <si>
+    <t>buri</t>
+  </si>
+  <si>
+    <t>pooer</t>
+  </si>
+  <si>
+    <t>Raii</t>
+  </si>
+  <si>
+    <t>nael</t>
+  </si>
+  <si>
+    <t>sair</t>
+  </si>
+  <si>
+    <t>ivan</t>
+  </si>
+  <si>
+    <t>mart</t>
+  </si>
+  <si>
+    <t>kule</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>asa</t>
+  </si>
+  <si>
+    <t>james</t>
   </si>
 </sst>
 </file>
@@ -174,8 +450,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +767,7 @@
     <col min="8" max="8" width="29.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -769,7 +1047,7 @@
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -804,7 +1082,7 @@
         <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -874,7 +1152,7 @@
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -920,7 +1198,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -944,7 +1222,7 @@
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1130,31 +1408,3216 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J80" t="s">
+        <v>31</v>
+      </c>
+      <c r="K80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82">
+        <v>26</v>
+      </c>
+      <c r="C82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" t="s">
+        <v>31</v>
+      </c>
+      <c r="J83" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s">
+        <v>31</v>
+      </c>
+      <c r="J84" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" t="s">
+        <v>31</v>
+      </c>
+      <c r="J85" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86">
+        <v>26</v>
+      </c>
+      <c r="C86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
+        <v>32</v>
+      </c>
+      <c r="H87" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" t="s">
+        <v>31</v>
+      </c>
+      <c r="J87" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88" t="s">
+        <v>31</v>
+      </c>
+      <c r="J88" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>32</v>
+      </c>
+      <c r="H89" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" t="s">
+        <v>32</v>
+      </c>
+      <c r="K89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91">
+        <v>26</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
+        <v>32</v>
+      </c>
+      <c r="K91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
+      </c>
+      <c r="H93" t="s">
+        <v>31</v>
+      </c>
+      <c r="I93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" t="s">
+        <v>32</v>
+      </c>
+      <c r="K93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" t="s">
+        <v>32</v>
+      </c>
+      <c r="J94" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" t="s">
+        <v>32</v>
+      </c>
+      <c r="H95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" t="s">
+        <v>32</v>
+      </c>
+      <c r="J95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" t="s">
+        <v>32</v>
+      </c>
+      <c r="J96" t="s">
+        <v>32</v>
+      </c>
+      <c r="K96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" t="s">
+        <v>32</v>
+      </c>
+      <c r="J97" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s">
+        <v>32</v>
+      </c>
+      <c r="H98" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98" t="s">
+        <v>32</v>
+      </c>
+      <c r="K98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
+        <v>32</v>
+      </c>
+      <c r="H99" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99" t="s">
+        <v>32</v>
+      </c>
+      <c r="J99" t="s">
+        <v>32</v>
+      </c>
+      <c r="K99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" t="s">
+        <v>32</v>
+      </c>
+      <c r="J100" t="s">
+        <v>32</v>
+      </c>
+      <c r="K100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" t="s">
+        <v>31</v>
+      </c>
+      <c r="I101" t="s">
+        <v>32</v>
+      </c>
+      <c r="J101" t="s">
+        <v>32</v>
+      </c>
+      <c r="K101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" t="s">
+        <v>32</v>
+      </c>
+      <c r="J102" t="s">
+        <v>32</v>
+      </c>
+      <c r="K102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s">
+        <v>32</v>
+      </c>
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" t="s">
+        <v>32</v>
+      </c>
+      <c r="J103" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104">
+        <v>23</v>
+      </c>
+      <c r="C104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
+      <c r="H104" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" t="s">
+        <v>32</v>
+      </c>
+      <c r="H105" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" t="s">
+        <v>32</v>
+      </c>
+      <c r="J105" t="s">
+        <v>32</v>
+      </c>
+      <c r="K105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106" t="s">
+        <v>32</v>
+      </c>
+      <c r="I106" t="s">
+        <v>32</v>
+      </c>
+      <c r="J106" t="s">
+        <v>32</v>
+      </c>
+      <c r="K106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107">
+        <v>23</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" t="s">
+        <v>32</v>
+      </c>
+      <c r="J107" t="s">
+        <v>32</v>
+      </c>
+      <c r="K107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I108" t="s">
+        <v>32</v>
+      </c>
+      <c r="J108" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109">
+        <v>42</v>
+      </c>
+      <c r="C109" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
+        <v>32</v>
+      </c>
+      <c r="H109" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110">
+        <v>43</v>
+      </c>
+      <c r="C110" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
+        <v>32</v>
+      </c>
+      <c r="H110" t="s">
+        <v>32</v>
+      </c>
+      <c r="I110" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
